--- a/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
+++ b/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2348,7 +2349,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>75.80</t>
@@ -2364,6 +2364,74 @@
       </c>
       <c r="H34" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
+++ b/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2377,7 +2378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2388,17 +2389,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2408,14 +2429,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.98</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2424,13 +2467,834 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6612</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6557</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5894</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3840</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011858</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011859</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信消费升级一年持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
+++ b/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3225,7 +3226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3236,17 +3237,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3256,14 +3277,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.1</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3272,14 +3315,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.98</v>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3288,13 +3353,660 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6521</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2957</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
+++ b/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3921,7 +3922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3932,17 +3933,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3952,14 +3973,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.89</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3968,14 +4011,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.1</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3984,14 +4049,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.98</v>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4000,13 +4087,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5856</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5212</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2957</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商沪深 300 指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014372</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
+++ b/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>13.04</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>7.89</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>11.1</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>4.98</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -566,6 +583,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6878</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4875</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3324</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013561</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001357</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013562</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014346</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001376</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1533,7 +2708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2228,7 +3403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3075,7 +4250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4376,7 +5551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
+++ b/数据整理/stocks/A股/上证主板/605499-东鹏饮料.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>12.36</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>13.04</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>7.89</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>11.1</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>4.98</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -583,6 +600,1500 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3446</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009951</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1280</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4485</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发睿阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009952</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001357</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001695</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德泓业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002801</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德泓信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009016</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泓德睿享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001376</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泓德泓富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1740,7 +3251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2708,7 +4219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3403,7 +4914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4250,7 +5761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5551,7 +7062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
